--- a/ML template.xlsx
+++ b/ML template.xlsx
@@ -1346,8 +1346,8 @@
   <sheetPr/>
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.4571428571429" defaultRowHeight="15"/>
